--- a/db_config.xlsx
+++ b/db_config.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">jenkins_template</t>
   </si>
   <si>
-    <t xml:space="preserve">report_type varchar (225)</t>
+    <t xml:space="preserve">report_testing int</t>
   </si>
 </sst>
 </file>
@@ -59,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -97,6 +97,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,7 +154,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -171,6 +177,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -190,10 +200,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -236,9 +246,16 @@
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/db_config.xlsx
+++ b/db_config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t xml:space="preserve">database</t>
   </si>
@@ -46,10 +46,19 @@
     <t xml:space="preserve">kmb_reports</t>
   </si>
   <si>
-    <t xml:space="preserve">jenkins_template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">report_testing int</t>
+    <t xml:space="preserve">report_master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">report_id-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">report_template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">report_matser-25</t>
   </si>
 </sst>
 </file>
@@ -203,7 +212,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -246,13 +255,27 @@
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>

--- a/db_config.xlsx
+++ b/db_config.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29019"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{467AF5FA-5578-4C70-8C11-8EA01C61D26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD5EA072-1A81-47AF-82AD-92B2FBF8E40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
     <t>kmb_reports</t>
   </si>
   <si>
-    <t>jenkins_template</t>
+    <t>jenkins_temp</t>
   </si>
   <si>
     <t>data</t>
@@ -455,7 +455,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
